--- a/Experiments/Exp5_Adapt_Emo_Identity_JAVMEPS/Stimuluslisten.xlsx
+++ b/Experiments/Exp5_Adapt_Emo_Identity_JAVMEPS/Stimuluslisten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christine Nussbaum\Documents\Arbeit\Forschungsprojekte\2024_Simultaneus_Adaptation\Experiments\Exp5_Adapt_Emo_Identity_JAVMEPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christine Nussbaum\Documents\Arbeit\Forschungsprojekte\2025_Simultaneous_Adaptation\Experiments\Exp5_Adapt_Emo_Identity_JAVMEPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5C2B11-ADEB-4083-AD25-BC490A147291}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34595343-F2C3-40E5-A5EA-5EE66A8C0D0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Target_female" sheetId="1" r:id="rId1"/>
@@ -3453,7 +3453,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3631,7 +3631,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3808,8 +3808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6B7732-4A60-4B97-8DB2-C824DFCC5F6C}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A18:A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3986,8 +3986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10832E8-17F8-47BA-B41A-81E6503D7AEC}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
